--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H2">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>42.92124024685155</v>
+        <v>45.41012893781511</v>
       </c>
       <c r="R2">
-        <v>386.291162221664</v>
+        <v>408.691160440336</v>
       </c>
       <c r="S2">
-        <v>0.01596041065091862</v>
+        <v>0.0214448086975423</v>
       </c>
       <c r="T2">
-        <v>0.01596041065091861</v>
+        <v>0.0214448086975423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H3">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>184.8337649095205</v>
+        <v>163.9418795437752</v>
       </c>
       <c r="R3">
-        <v>1663.503884185684</v>
+        <v>1475.476915893977</v>
       </c>
       <c r="S3">
-        <v>0.06873107051764875</v>
+        <v>0.07742110244051953</v>
       </c>
       <c r="T3">
-        <v>0.06873107051764873</v>
+        <v>0.07742110244051952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H4">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>11.16299853372133</v>
+        <v>15.20238146288867</v>
       </c>
       <c r="R4">
-        <v>100.466986803492</v>
+        <v>136.821433165998</v>
       </c>
       <c r="S4">
-        <v>0.004150999357640045</v>
+        <v>0.007179282901071558</v>
       </c>
       <c r="T4">
-        <v>0.004150999357640045</v>
+        <v>0.007179282901071557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H5">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>13.91652327932622</v>
+        <v>13.86931044108955</v>
       </c>
       <c r="R5">
-        <v>125.248709513936</v>
+        <v>124.823793969806</v>
       </c>
       <c r="S5">
-        <v>0.00517490699461808</v>
+        <v>0.006549743771555607</v>
       </c>
       <c r="T5">
-        <v>0.005174906994618079</v>
+        <v>0.006549743771555605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H6">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>11.97685772225911</v>
+        <v>18.85247551729222</v>
       </c>
       <c r="R6">
-        <v>107.791719500332</v>
+        <v>169.67227965563</v>
       </c>
       <c r="S6">
-        <v>0.004453635693085622</v>
+        <v>0.008903029795336311</v>
       </c>
       <c r="T6">
-        <v>0.004453635693085621</v>
+        <v>0.008903029795336309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>122.9846776939698</v>
+        <v>146.6975563526471</v>
       </c>
       <c r="R7">
-        <v>1106.862099245728</v>
+        <v>1320.278007173824</v>
       </c>
       <c r="S7">
-        <v>0.04573227494074135</v>
+        <v>0.06927751816532966</v>
       </c>
       <c r="T7">
-        <v>0.04573227494074134</v>
+        <v>0.06927751816532965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
-        <v>529.6147285964743</v>
+        <v>529.6147285964744</v>
       </c>
       <c r="R8">
-        <v>4766.532557368268</v>
+        <v>4766.532557368269</v>
       </c>
       <c r="S8">
-        <v>0.1969390564335939</v>
+        <v>0.2501091012911499</v>
       </c>
       <c r="T8">
-        <v>0.1969390564335939</v>
+        <v>0.2501091012911499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>31.98597638074267</v>
+        <v>49.11133845051468</v>
       </c>
       <c r="R9">
-        <v>287.873787426684</v>
+        <v>442.0020460546321</v>
       </c>
       <c r="S9">
-        <v>0.01189409521186155</v>
+        <v>0.02319269472662753</v>
       </c>
       <c r="T9">
-        <v>0.01189409521186155</v>
+        <v>0.02319269472662753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>39.87580788171912</v>
+        <v>44.80484855681156</v>
       </c>
       <c r="R10">
-        <v>358.882270935472</v>
+        <v>403.243637011304</v>
       </c>
       <c r="S10">
-        <v>0.01482795616270803</v>
+        <v>0.02115896669967501</v>
       </c>
       <c r="T10">
-        <v>0.01482795616270803</v>
+        <v>0.021158966699675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>34.31797353215156</v>
+        <v>60.90297813010223</v>
       </c>
       <c r="R11">
-        <v>308.861761789364</v>
+        <v>548.1268031709201</v>
       </c>
       <c r="S11">
-        <v>0.01276125636468935</v>
+        <v>0.02876126418621627</v>
       </c>
       <c r="T11">
-        <v>0.01276125636468934</v>
+        <v>0.02876126418621626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H12">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>143.8744890812133</v>
+        <v>85.49367391641245</v>
       </c>
       <c r="R12">
-        <v>1294.87040173092</v>
+        <v>769.443065247712</v>
       </c>
       <c r="S12">
-        <v>0.05350022307651545</v>
+        <v>0.04037415274680654</v>
       </c>
       <c r="T12">
-        <v>0.05350022307651544</v>
+        <v>0.04037415274680653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H13">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>619.5735104198217</v>
+        <v>308.653463859415</v>
       </c>
       <c r="R13">
-        <v>5576.161593778394</v>
+        <v>2777.881174734734</v>
       </c>
       <c r="S13">
-        <v>0.2303905385272955</v>
+        <v>0.145760750764726</v>
       </c>
       <c r="T13">
-        <v>0.2303905385272954</v>
+        <v>0.145760750764726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H14">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>37.419019148015</v>
+        <v>28.62153167019067</v>
       </c>
       <c r="R14">
-        <v>336.771172332135</v>
+        <v>257.593785031716</v>
       </c>
       <c r="S14">
-        <v>0.01391439083125551</v>
+        <v>0.01351643973833251</v>
       </c>
       <c r="T14">
-        <v>0.01391439083125551</v>
+        <v>0.01351643973833251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H15">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>46.64899394995334</v>
+        <v>26.11175814805022</v>
       </c>
       <c r="R15">
-        <v>419.8409455495801</v>
+        <v>235.005823332452</v>
       </c>
       <c r="S15">
-        <v>0.01734658867291441</v>
+        <v>0.01233120608418098</v>
       </c>
       <c r="T15">
-        <v>0.01734658867291441</v>
+        <v>0.01233120608418098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H16">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>40.14712239623167</v>
+        <v>35.49356568882889</v>
       </c>
       <c r="R16">
-        <v>361.3241015660851</v>
+        <v>319.44209119946</v>
       </c>
       <c r="S16">
-        <v>0.01492884539708873</v>
+        <v>0.0167617389334638</v>
       </c>
       <c r="T16">
-        <v>0.01492884539708872</v>
+        <v>0.0167617389334638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H17">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N17">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q17">
-        <v>26.98217192174933</v>
+        <v>30.352641515136</v>
       </c>
       <c r="R17">
-        <v>242.839547295744</v>
+        <v>273.173773636224</v>
       </c>
       <c r="S17">
-        <v>0.01003341333214142</v>
+        <v>0.01433395160908984</v>
       </c>
       <c r="T17">
-        <v>0.01003341333214142</v>
+        <v>0.01433395160908984</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H18">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N18">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O18">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P18">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q18">
-        <v>116.1946018579627</v>
+        <v>109.580598326952</v>
       </c>
       <c r="R18">
-        <v>1045.751416721664</v>
+        <v>986.2253849425681</v>
       </c>
       <c r="S18">
-        <v>0.04320736191236019</v>
+        <v>0.05174913665851344</v>
       </c>
       <c r="T18">
-        <v>0.04320736191236019</v>
+        <v>0.05174913665851343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H19">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N19">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q19">
-        <v>7.017549909248</v>
+        <v>10.161442953648</v>
       </c>
       <c r="R19">
-        <v>63.157949183232</v>
+        <v>91.45298658283201</v>
       </c>
       <c r="S19">
-        <v>0.002609500044051747</v>
+        <v>0.00479871353218085</v>
       </c>
       <c r="T19">
-        <v>0.002609500044051747</v>
+        <v>0.004798713532180849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H20">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N20">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O20">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P20">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q20">
-        <v>8.748536191317335</v>
+        <v>9.270403271856001</v>
       </c>
       <c r="R20">
-        <v>78.73682572185601</v>
+        <v>83.43362944670399</v>
       </c>
       <c r="S20">
-        <v>0.003253173240213873</v>
+        <v>0.004377922489193166</v>
       </c>
       <c r="T20">
-        <v>0.003253173240213873</v>
+        <v>0.004377922489193165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H21">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N21">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O21">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P21">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q21">
-        <v>7.529177448874668</v>
+        <v>12.60120692088</v>
       </c>
       <c r="R21">
-        <v>67.76259703987201</v>
+        <v>113.41086228792</v>
       </c>
       <c r="S21">
-        <v>0.002799750502468073</v>
+        <v>0.005950885366268675</v>
       </c>
       <c r="T21">
-        <v>0.002799750502468072</v>
+        <v>0.005950885366268675</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H22">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N22">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q22">
-        <v>99.11427950636801</v>
+        <v>65.79816840944355</v>
       </c>
       <c r="R22">
-        <v>892.0285155573119</v>
+        <v>592.183515684992</v>
       </c>
       <c r="S22">
-        <v>0.03685598536280879</v>
+        <v>0.03107300435375243</v>
       </c>
       <c r="T22">
-        <v>0.03685598536280878</v>
+        <v>0.03107300435375243</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H23">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N23">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O23">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P23">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q23">
-        <v>426.820505001608</v>
+        <v>237.5477817813272</v>
       </c>
       <c r="R23">
-        <v>3841.384545014472</v>
+        <v>2137.930036031944</v>
       </c>
       <c r="S23">
-        <v>0.1587146712182398</v>
+        <v>0.112181287655053</v>
       </c>
       <c r="T23">
-        <v>0.1587146712182398</v>
+        <v>0.112181287655053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H24">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N24">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q24">
-        <v>25.777739656104</v>
+        <v>22.02787966291734</v>
       </c>
       <c r="R24">
-        <v>231.999656904936</v>
+        <v>198.250916966256</v>
       </c>
       <c r="S24">
-        <v>0.009585541056075819</v>
+        <v>0.0104026056836489</v>
       </c>
       <c r="T24">
-        <v>0.009585541056075819</v>
+        <v>0.0104026056836489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H25">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N25">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O25">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P25">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q25">
-        <v>32.136214380832</v>
+        <v>20.09629229142578</v>
       </c>
       <c r="R25">
-        <v>289.225929427488</v>
+        <v>180.866630622832</v>
       </c>
       <c r="S25">
-        <v>0.01194996172836965</v>
+        <v>0.00949041885147872</v>
       </c>
       <c r="T25">
-        <v>0.01194996172836965</v>
+        <v>0.009490418851478716</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H26">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N26">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O26">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P26">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q26">
-        <v>27.657113752184</v>
+        <v>27.31677685215111</v>
       </c>
       <c r="R26">
-        <v>248.914023769656</v>
+        <v>245.85099166936</v>
       </c>
       <c r="S26">
-        <v>0.01028439277069598</v>
+        <v>0.01290027285828751</v>
       </c>
       <c r="T26">
-        <v>0.01028439277069597</v>
+        <v>0.0129002728582875</v>
       </c>
     </row>
   </sheetData>
